--- a/src/analysis_examples/circadb/results_lomb/cosinor_10457733_b4galt6_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10457733_b4galt6_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.26863931065883434, 0.3560902322823328]</t>
+          <t>[0.2691565076327734, 0.35557303530839374]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.295186180527708e-12</v>
+        <v>1.029842877642295e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.295186180527708e-12</v>
+        <v>1.029842877642295e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.119526511189155</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.37757742194964033, 0.4256232537145849]</t>
+          <t>[0.37758188537311904, 0.4256187902911062]</t>
         </is>
       </c>
       <c r="U2" t="n">
